--- a/UNODA_Disarmament_Treaties_Database/States_Parties_to_Disarmament_Treaties/Austria.xlsx
+++ b/UNODA_Disarmament_Treaties_Database/States_Parties_to_Disarmament_Treaties/Austria.xlsx
@@ -564,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A77" sqref="A77:B81"/>
     </sheetView>
   </sheetViews>
